--- a/MDP_Precios/data/productos.xlsx
+++ b/MDP_Precios/data/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHIAVON\Documents\GitHub\cridvon.github.io\MDP_Precios\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHIAVON\Documents\GitHub\cridvon.github.io\MDP_Precios\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C561B4F6-479D-497E-896C-A0A35835D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23F0A9-702F-4D19-9A73-989F024421EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="2025" windowWidth="15375" windowHeight="7875" xr2:uid="{D87BEBE5-92D3-4003-B3B9-565FB9A06470}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D87BEBE5-92D3-4003-B3B9-565FB9A06470}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Producto</t>
   </si>
@@ -83,32 +83,47 @@
     <t>Funda par Iphone 15</t>
   </si>
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>images/product1.jpg</t>
-  </si>
-  <si>
-    <t>images/product2.jpg</t>
-  </si>
-  <si>
-    <t>images/product3.jpg</t>
-  </si>
-  <si>
-    <t>images/product4.jpg</t>
-  </si>
-  <si>
-    <t>images/product5.jpg</t>
-  </si>
-  <si>
-    <t>images/product6.jpg</t>
+    <t>Imagen1</t>
+  </si>
+  <si>
+    <t>Imagen2</t>
+  </si>
+  <si>
+    <t>images/prod1-1.jpg</t>
+  </si>
+  <si>
+    <t>images/prod1-2.jpg</t>
+  </si>
+  <si>
+    <t>Imagen3</t>
+  </si>
+  <si>
+    <t>images/prod1-3.jpg</t>
+  </si>
+  <si>
+    <t>images/prod2-2.jpg</t>
+  </si>
+  <si>
+    <t>images/prod2-3.jpg</t>
+  </si>
+  <si>
+    <t>images/prod2-1.jpg</t>
+  </si>
+  <si>
+    <t>images/prod3-1.jpg</t>
+  </si>
+  <si>
+    <t>images/prod3-2.jpg</t>
+  </si>
+  <si>
+    <t>images/prod3-3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +135,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -159,7 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -498,20 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80BDD9-5734-4033-9A3A-129065E73DA1}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,92 +544,135 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MDP_Precios/data/productos.xlsx
+++ b/MDP_Precios/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHIAVON\Documents\GitHub\cridvon.github.io\MDP_Precios\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23F0A9-702F-4D19-9A73-989F024421EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44F68C-84AD-47CC-901F-4A132687310F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D87BEBE5-92D3-4003-B3B9-565FB9A06470}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Producto</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
     <t>Funda I13</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>images/prod3-3.jpg</t>
+  </si>
+  <si>
+    <t>PrecioUSD</t>
+  </si>
+  <si>
+    <t>PrecioPesos</t>
   </si>
 </sst>
 </file>
@@ -518,20 +521,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80BDD9-5734-4033-9A3A-129065E73DA1}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="D4:F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,136 +542,163 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5">
+        <f>C2*1230</f>
+        <v>12300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
+      <c r="G2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D7" si="0">C3*1230</f>
+        <v>18450</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="5">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>24600</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="5">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>82410</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>67650</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>14760</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
